--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\three\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luqinglu/Desktop/WhatMakesABuddha/WhatMakesABuddha/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B14D80D-08AF-41A9-BA2D-C16047142BEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C33993-0B28-1047-A566-738E3D6EC69E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. halo" sheetId="6" r:id="rId1"/>
@@ -1674,9 +1674,6 @@
     <t>img/1_halo/FS-0962-21h.png</t>
   </si>
   <si>
-    <t>img/1_halo/FS-4007-07H.png</t>
-  </si>
-  <si>
     <t>img/1_halo/FS-4046_19h.png</t>
   </si>
   <si>
@@ -2296,6 +2293,9 @@
   </si>
   <si>
     <t>img/6_animals/turtle/FS-7606_22.png</t>
+  </si>
+  <si>
+    <t>img/1_halo/FS-4007-07h.png</t>
   </si>
 </sst>
 </file>
@@ -3239,11 +3239,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF363A1-A019-4685-845E-25DA4B255FD1}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>260</v>
       </c>
@@ -3263,7 +3265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3283,12 +3285,12 @@
         <v>317</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>549</v>
+        <v>756</v>
       </c>
       <c r="C3" t="s">
         <v>255</v>
@@ -3303,12 +3305,12 @@
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C4" t="s">
         <v>256</v>
@@ -3323,12 +3325,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C5" t="s">
         <v>235</v>
@@ -3343,12 +3345,12 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
@@ -3363,12 +3365,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
@@ -3383,12 +3385,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C8" t="s">
         <v>234</v>
@@ -3403,12 +3405,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C9" t="s">
         <v>239</v>
@@ -3423,12 +3425,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
@@ -3443,12 +3445,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C11" t="s">
         <v>305</v>
@@ -3463,12 +3465,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C12" t="s">
         <v>68</v>
@@ -3483,12 +3485,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C13" t="s">
         <v>259</v>
@@ -3503,12 +3505,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C14" t="s">
         <v>301</v>
@@ -3523,12 +3525,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C15" t="s">
         <v>148</v>
@@ -3543,12 +3545,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C16" t="s">
         <v>250</v>
@@ -3563,12 +3565,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C17" t="s">
         <v>240</v>
@@ -3583,12 +3585,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C18" t="s">
         <v>134</v>
@@ -3603,12 +3605,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C19" t="s">
         <v>242</v>
@@ -3623,12 +3625,12 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C20" t="s">
         <v>62</v>
@@ -3643,12 +3645,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C21" t="s">
         <v>146</v>
@@ -3663,12 +3665,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C22" t="s">
         <v>123</v>
@@ -3683,12 +3685,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C23" t="s">
         <v>62</v>
@@ -3703,12 +3705,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C24" t="s">
         <v>162</v>
@@ -3723,12 +3725,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C25" t="s">
         <v>162</v>
@@ -3743,12 +3745,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C26" t="s">
         <v>233</v>
@@ -3763,12 +3765,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C27" t="s">
         <v>311</v>
@@ -3783,12 +3785,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C28" t="s">
         <v>20</v>
@@ -3803,12 +3805,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C29" t="s">
         <v>302</v>
@@ -3823,12 +3825,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C30" t="s">
         <v>192</v>
@@ -3843,12 +3845,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C31" t="s">
         <v>198</v>
@@ -3863,12 +3865,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C32" t="s">
         <v>244</v>
@@ -3902,9 +3904,9 @@
       <selection activeCell="F1" sqref="A1:F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>260</v>
       </c>
@@ -3924,12 +3926,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C2" t="s">
         <v>264</v>
@@ -3944,12 +3946,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C3" t="s">
         <v>262</v>
@@ -3964,12 +3966,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C4" t="s">
         <v>272</v>
@@ -3984,12 +3986,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C5" t="s">
         <v>265</v>
@@ -4004,12 +4006,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C6" t="s">
         <v>262</v>
@@ -4024,12 +4026,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C7" t="s">
         <v>264</v>
@@ -4044,12 +4046,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C8" t="s">
         <v>239</v>
@@ -4064,12 +4066,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C9" t="s">
         <v>68</v>
@@ -4084,12 +4086,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C10" t="s">
         <v>283</v>
@@ -4104,12 +4106,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C11" t="s">
         <v>265</v>
@@ -4124,12 +4126,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C12" t="s">
         <v>319</v>
@@ -4144,12 +4146,12 @@
         <v>318</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C13" t="s">
         <v>265</v>
@@ -4164,12 +4166,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C14" t="s">
         <v>265</v>
@@ -4184,12 +4186,12 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C15" t="s">
         <v>265</v>
@@ -4204,12 +4206,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C16" t="s">
         <v>265</v>
@@ -4224,12 +4226,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C17" t="s">
         <v>259</v>
@@ -4244,12 +4246,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C18" t="s">
         <v>264</v>
@@ -4264,12 +4266,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C19" t="s">
         <v>264</v>
@@ -4284,12 +4286,12 @@
         <v>285</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C20" t="s">
         <v>264</v>
@@ -4304,12 +4306,12 @@
         <v>285</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C21" t="s">
         <v>265</v>
@@ -4324,12 +4326,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C22" t="s">
         <v>109</v>
@@ -4344,12 +4346,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C23" t="s">
         <v>113</v>
@@ -4364,12 +4366,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C24" t="s">
         <v>120</v>
@@ -4384,12 +4386,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C25" t="s">
         <v>275</v>
@@ -4404,12 +4406,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C26" t="s">
         <v>276</v>
@@ -4424,12 +4426,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C27" t="s">
         <v>240</v>
@@ -4444,12 +4446,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C28" t="s">
         <v>62</v>
@@ -4464,12 +4466,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C29" t="s">
         <v>313</v>
@@ -4484,12 +4486,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C30" t="s">
         <v>262</v>
@@ -4504,12 +4506,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C31" t="s">
         <v>303</v>
@@ -4524,12 +4526,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C32" t="s">
         <v>248</v>
@@ -4544,12 +4546,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C33" t="s">
         <v>272</v>
@@ -4564,12 +4566,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C34" t="s">
         <v>157</v>
@@ -4584,12 +4586,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C35" t="s">
         <v>159</v>
@@ -4604,12 +4606,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C36" t="s">
         <v>165</v>
@@ -4624,12 +4626,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C37" t="s">
         <v>261</v>
@@ -4644,12 +4646,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C38" t="s">
         <v>233</v>
@@ -4664,12 +4666,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C39" t="s">
         <v>247</v>
@@ -4684,12 +4686,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C40" t="s">
         <v>274</v>
@@ -4704,12 +4706,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C41" t="s">
         <v>167</v>
@@ -4724,12 +4726,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C42" t="s">
         <v>272</v>
@@ -4744,12 +4746,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C43" t="s">
         <v>169</v>
@@ -4764,12 +4766,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C44" t="s">
         <v>277</v>
@@ -4784,12 +4786,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C45" t="s">
         <v>262</v>
@@ -4804,12 +4806,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C46" t="s">
         <v>264</v>
@@ -4824,12 +4826,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -4844,12 +4846,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>78</v>
       </c>
       <c r="B48" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C48" t="s">
         <v>262</v>
@@ -4864,12 +4866,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C49" t="s">
         <v>175</v>
@@ -4884,12 +4886,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C50" t="s">
         <v>94</v>
@@ -4904,12 +4906,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>81</v>
       </c>
       <c r="B51" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C51" t="s">
         <v>292</v>
@@ -4924,12 +4926,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C52" t="s">
         <v>197</v>
@@ -4944,12 +4946,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C53" t="s">
         <v>198</v>
@@ -4964,12 +4966,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C54" t="s">
         <v>205</v>
@@ -4998,9 +5000,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>260</v>
       </c>
@@ -5020,12 +5022,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C2" t="s">
         <v>264</v>
@@ -5040,12 +5042,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C3" t="s">
         <v>272</v>
@@ -5060,12 +5062,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C4" t="s">
         <v>262</v>
@@ -5080,12 +5082,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C5" t="s">
         <v>264</v>
@@ -5100,12 +5102,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -5120,12 +5122,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
@@ -5140,12 +5142,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C8" t="s">
         <v>239</v>
@@ -5160,12 +5162,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
@@ -5180,12 +5182,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C10" t="s">
         <v>283</v>
@@ -5200,12 +5202,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C11" t="s">
         <v>265</v>
@@ -5220,12 +5222,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C12" t="s">
         <v>319</v>
@@ -5240,12 +5242,12 @@
         <v>318</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C13" t="s">
         <v>265</v>
@@ -5260,12 +5262,12 @@
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>97</v>
       </c>
       <c r="B14" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C14" t="s">
         <v>265</v>
@@ -5280,12 +5282,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C15" t="s">
         <v>265</v>
@@ -5300,12 +5302,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>99</v>
       </c>
       <c r="B16" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C16" t="s">
         <v>265</v>
@@ -5320,12 +5322,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C17" t="s">
         <v>264</v>
@@ -5340,12 +5342,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C18" t="s">
         <v>264</v>
@@ -5360,12 +5362,12 @@
         <v>285</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C19" t="s">
         <v>288</v>
@@ -5380,12 +5382,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C20" t="s">
         <v>264</v>
@@ -5400,12 +5402,12 @@
         <v>285</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>104</v>
       </c>
       <c r="B21" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C21" t="s">
         <v>265</v>
@@ -5420,12 +5422,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>105</v>
       </c>
       <c r="B22" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C22" t="s">
         <v>109</v>
@@ -5440,12 +5442,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C23" t="s">
         <v>120</v>
@@ -5460,12 +5462,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>107</v>
       </c>
       <c r="B24" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C24" t="s">
         <v>275</v>
@@ -5480,12 +5482,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C25" t="s">
         <v>276</v>
@@ -5500,12 +5502,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>109</v>
       </c>
       <c r="B26" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C26" t="s">
         <v>313</v>
@@ -5520,12 +5522,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>110</v>
       </c>
       <c r="B27" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C27" t="s">
         <v>262</v>
@@ -5540,12 +5542,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>111</v>
       </c>
       <c r="B28" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C28" t="s">
         <v>272</v>
@@ -5560,12 +5562,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>112</v>
       </c>
       <c r="B29" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C29" t="s">
         <v>166</v>
@@ -5580,12 +5582,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>113</v>
       </c>
       <c r="B30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C30" t="s">
         <v>261</v>
@@ -5600,12 +5602,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>114</v>
       </c>
       <c r="B31" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C31" t="s">
         <v>261</v>
@@ -5620,12 +5622,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>115</v>
       </c>
       <c r="B32" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C32" t="s">
         <v>247</v>
@@ -5640,12 +5642,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>116</v>
       </c>
       <c r="B33" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C33" t="s">
         <v>272</v>
@@ -5660,12 +5662,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>117</v>
       </c>
       <c r="B34" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C34" t="s">
         <v>277</v>
@@ -5680,12 +5682,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>118</v>
       </c>
       <c r="B35" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C35" t="s">
         <v>262</v>
@@ -5700,12 +5702,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>119</v>
       </c>
       <c r="B36" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C36" t="s">
         <v>264</v>
@@ -5720,12 +5722,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>120</v>
       </c>
       <c r="B37" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -5740,12 +5742,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>121</v>
       </c>
       <c r="B38" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C38" t="s">
         <v>262</v>
@@ -5760,12 +5762,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>122</v>
       </c>
       <c r="B39" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C39" t="s">
         <v>246</v>
@@ -5780,12 +5782,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>123</v>
       </c>
       <c r="B40" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C40" t="s">
         <v>94</v>
@@ -5800,12 +5802,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>124</v>
       </c>
       <c r="B41" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C41" t="s">
         <v>198</v>
@@ -5820,12 +5822,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>125</v>
       </c>
       <c r="B42" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C42" t="s">
         <v>205</v>
@@ -5840,12 +5842,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C43" t="s">
         <v>244</v>
@@ -5879,9 +5881,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5901,7 +5903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>127</v>
       </c>
@@ -5921,7 +5923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>128</v>
       </c>
@@ -5941,7 +5943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>129</v>
       </c>
@@ -5961,7 +5963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>130</v>
       </c>
@@ -5981,7 +5983,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>131</v>
       </c>
@@ -6001,7 +6003,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>132</v>
       </c>
@@ -6021,7 +6023,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>133</v>
       </c>
@@ -6041,7 +6043,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>134</v>
       </c>
@@ -6061,7 +6063,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>135</v>
       </c>
@@ -6081,7 +6083,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>136</v>
       </c>
@@ -6101,7 +6103,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>137</v>
       </c>
@@ -6121,7 +6123,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>138</v>
       </c>
@@ -6141,7 +6143,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>139</v>
       </c>
@@ -6161,7 +6163,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>140</v>
       </c>
@@ -6181,7 +6183,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>141</v>
       </c>
@@ -6201,7 +6203,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>142</v>
       </c>
@@ -6221,7 +6223,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>143</v>
       </c>
@@ -6241,7 +6243,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>144</v>
       </c>
@@ -6261,7 +6263,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>145</v>
       </c>
@@ -6281,7 +6283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>146</v>
       </c>
@@ -6301,7 +6303,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>147</v>
       </c>
@@ -6321,7 +6323,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>148</v>
       </c>
@@ -6341,7 +6343,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>149</v>
       </c>
@@ -6361,7 +6363,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>150</v>
       </c>
@@ -6381,7 +6383,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>151</v>
       </c>
@@ -6401,7 +6403,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>152</v>
       </c>
@@ -6421,7 +6423,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>153</v>
       </c>
@@ -6441,7 +6443,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>154</v>
       </c>
@@ -6461,7 +6463,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>155</v>
       </c>
@@ -6481,7 +6483,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>156</v>
       </c>
@@ -6501,7 +6503,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>157</v>
       </c>
@@ -6521,7 +6523,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>158</v>
       </c>
@@ -6541,7 +6543,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>159</v>
       </c>
@@ -6561,7 +6563,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>160</v>
       </c>
@@ -6581,7 +6583,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>161</v>
       </c>
@@ -6601,7 +6603,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>162</v>
       </c>
@@ -6621,7 +6623,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>163</v>
       </c>
@@ -6641,7 +6643,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>164</v>
       </c>
@@ -6661,7 +6663,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>165</v>
       </c>
@@ -6681,7 +6683,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>166</v>
       </c>
@@ -6701,7 +6703,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>167</v>
       </c>
@@ -6721,7 +6723,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>168</v>
       </c>
@@ -6741,7 +6743,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>169</v>
       </c>
@@ -6761,7 +6763,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>170</v>
       </c>
@@ -6781,7 +6783,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>171</v>
       </c>
@@ -6801,7 +6803,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>172</v>
       </c>
@@ -6821,7 +6823,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>173</v>
       </c>
@@ -6841,7 +6843,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>174</v>
       </c>
@@ -6861,7 +6863,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>175</v>
       </c>
@@ -6881,7 +6883,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>176</v>
       </c>
@@ -6901,7 +6903,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>177</v>
       </c>
@@ -6921,7 +6923,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>178</v>
       </c>
@@ -6941,7 +6943,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>179</v>
       </c>
@@ -6961,7 +6963,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>180</v>
       </c>
@@ -6981,7 +6983,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>181</v>
       </c>
@@ -7001,7 +7003,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>182</v>
       </c>
@@ -7021,7 +7023,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>183</v>
       </c>
@@ -7041,7 +7043,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>184</v>
       </c>
@@ -7061,7 +7063,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>185</v>
       </c>
@@ -7081,7 +7083,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>186</v>
       </c>
@@ -7101,7 +7103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>187</v>
       </c>
@@ -7121,7 +7123,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>188</v>
       </c>
@@ -7141,7 +7143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>189</v>
       </c>
@@ -7161,7 +7163,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>190</v>
       </c>
@@ -7181,7 +7183,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>191</v>
       </c>
@@ -7201,7 +7203,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>192</v>
       </c>
@@ -7221,7 +7223,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>193</v>
       </c>
@@ -7241,7 +7243,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>194</v>
       </c>
@@ -7261,7 +7263,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>195</v>
       </c>
@@ -7281,7 +7283,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>196</v>
       </c>
@@ -7301,7 +7303,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>197</v>
       </c>
@@ -7321,7 +7323,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>198</v>
       </c>
@@ -7341,7 +7343,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>199</v>
       </c>
@@ -7361,7 +7363,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>200</v>
       </c>
@@ -7381,7 +7383,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>201</v>
       </c>
@@ -7401,7 +7403,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>202</v>
       </c>
@@ -7421,7 +7423,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>203</v>
       </c>
@@ -7441,7 +7443,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>204</v>
       </c>
@@ -7461,7 +7463,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>205</v>
       </c>
@@ -7481,7 +7483,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>206</v>
       </c>
@@ -7501,7 +7503,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>207</v>
       </c>
@@ -7521,7 +7523,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>208</v>
       </c>
@@ -7541,7 +7543,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>209</v>
       </c>
@@ -7561,7 +7563,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>210</v>
       </c>
@@ -7581,7 +7583,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>211</v>
       </c>
@@ -7601,7 +7603,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>212</v>
       </c>
@@ -7621,7 +7623,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>213</v>
       </c>
@@ -7641,7 +7643,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>214</v>
       </c>
@@ -7661,7 +7663,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>215</v>
       </c>
@@ -7681,7 +7683,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>216</v>
       </c>
@@ -7701,7 +7703,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>217</v>
       </c>
@@ -7721,7 +7723,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>218</v>
       </c>
@@ -7741,7 +7743,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>219</v>
       </c>
@@ -7761,7 +7763,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>220</v>
       </c>
@@ -7781,7 +7783,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>221</v>
       </c>
@@ -7801,7 +7803,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>222</v>
       </c>
@@ -7821,7 +7823,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>223</v>
       </c>
@@ -7841,7 +7843,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>224</v>
       </c>
@@ -7861,7 +7863,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>225</v>
       </c>
@@ -7881,7 +7883,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>226</v>
       </c>
@@ -7901,7 +7903,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>227</v>
       </c>
@@ -7921,7 +7923,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>228</v>
       </c>
@@ -7941,7 +7943,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>229</v>
       </c>
@@ -7961,7 +7963,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>230</v>
       </c>
@@ -7981,7 +7983,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>231</v>
       </c>
@@ -8001,7 +8003,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>232</v>
       </c>
@@ -8021,7 +8023,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>233</v>
       </c>
@@ -8041,7 +8043,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>234</v>
       </c>
@@ -8061,7 +8063,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>235</v>
       </c>
@@ -8081,7 +8083,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>236</v>
       </c>
@@ -8101,7 +8103,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>237</v>
       </c>
@@ -8121,7 +8123,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>238</v>
       </c>
@@ -8141,7 +8143,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>239</v>
       </c>
@@ -8161,7 +8163,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>240</v>
       </c>
@@ -8181,7 +8183,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>241</v>
       </c>
@@ -8201,7 +8203,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>242</v>
       </c>
@@ -8221,7 +8223,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>243</v>
       </c>
@@ -8241,7 +8243,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>244</v>
       </c>
@@ -8261,7 +8263,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>245</v>
       </c>
@@ -8281,7 +8283,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>246</v>
       </c>
@@ -8301,7 +8303,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>247</v>
       </c>
@@ -8321,7 +8323,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>248</v>
       </c>
@@ -8341,7 +8343,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>249</v>
       </c>
@@ -8361,7 +8363,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>250</v>
       </c>
@@ -8381,7 +8383,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>251</v>
       </c>
@@ -8401,7 +8403,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>252</v>
       </c>
@@ -8421,7 +8423,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>253</v>
       </c>
@@ -8441,7 +8443,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>254</v>
       </c>
@@ -8461,7 +8463,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>255</v>
       </c>
@@ -8481,7 +8483,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>256</v>
       </c>
@@ -8501,7 +8503,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>257</v>
       </c>
@@ -8521,7 +8523,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>258</v>
       </c>
@@ -8541,7 +8543,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>259</v>
       </c>
@@ -8561,7 +8563,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>260</v>
       </c>
@@ -8581,7 +8583,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>261</v>
       </c>
@@ -8601,7 +8603,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>262</v>
       </c>
@@ -8621,7 +8623,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>263</v>
       </c>
@@ -8641,7 +8643,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>264</v>
       </c>
@@ -8661,7 +8663,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>265</v>
       </c>
@@ -8681,7 +8683,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>266</v>
       </c>
@@ -8701,7 +8703,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>267</v>
       </c>
@@ -8721,7 +8723,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>268</v>
       </c>
@@ -8741,7 +8743,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>269</v>
       </c>
@@ -8761,7 +8763,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>270</v>
       </c>
@@ -8781,7 +8783,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>271</v>
       </c>
@@ -8801,7 +8803,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>272</v>
       </c>
@@ -8821,7 +8823,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>273</v>
       </c>
@@ -8841,7 +8843,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>274</v>
       </c>
@@ -8861,7 +8863,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>275</v>
       </c>
@@ -8881,7 +8883,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>276</v>
       </c>
@@ -8901,7 +8903,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>277</v>
       </c>
@@ -8921,7 +8923,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>278</v>
       </c>
@@ -8941,7 +8943,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>279</v>
       </c>
@@ -8961,7 +8963,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>280</v>
       </c>
@@ -8981,7 +8983,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>281</v>
       </c>
@@ -9001,7 +9003,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>282</v>
       </c>
@@ -9021,7 +9023,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>283</v>
       </c>
@@ -9041,7 +9043,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>284</v>
       </c>
@@ -9061,7 +9063,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>285</v>
       </c>
@@ -9081,7 +9083,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>286</v>
       </c>
@@ -9101,7 +9103,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>287</v>
       </c>
@@ -9121,7 +9123,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>288</v>
       </c>
@@ -9141,7 +9143,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>289</v>
       </c>
@@ -9161,7 +9163,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>290</v>
       </c>
@@ -9181,7 +9183,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>291</v>
       </c>
@@ -9201,7 +9203,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>292</v>
       </c>
@@ -9221,7 +9223,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>293</v>
       </c>
@@ -9241,7 +9243,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>294</v>
       </c>
@@ -9261,7 +9263,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>295</v>
       </c>
@@ -9281,7 +9283,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>296</v>
       </c>
@@ -9301,7 +9303,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>297</v>
       </c>
@@ -9321,7 +9323,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>298</v>
       </c>
@@ -9341,7 +9343,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>299</v>
       </c>
@@ -9361,7 +9363,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>300</v>
       </c>
@@ -9381,7 +9383,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>301</v>
       </c>
@@ -9401,7 +9403,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>302</v>
       </c>
@@ -9421,7 +9423,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>303</v>
       </c>
@@ -9452,9 +9454,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>260</v>
       </c>
@@ -9474,12 +9476,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>304</v>
       </c>
       <c r="B2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -9494,12 +9496,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>305</v>
       </c>
       <c r="B3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
@@ -9514,12 +9516,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>306</v>
       </c>
       <c r="B4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C4" t="s">
         <v>305</v>
@@ -9534,12 +9536,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>307</v>
       </c>
       <c r="B5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C5" t="s">
         <v>51</v>
@@ -9554,12 +9556,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>308</v>
       </c>
       <c r="B6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C6" t="s">
         <v>56</v>
@@ -9574,12 +9576,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>309</v>
       </c>
       <c r="B7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -9594,12 +9596,12 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>310</v>
       </c>
       <c r="B8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C8" t="s">
         <v>289</v>
@@ -9614,12 +9616,12 @@
         <v>290</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>311</v>
       </c>
       <c r="B9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C9" t="s">
         <v>306</v>
@@ -9634,12 +9636,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>312</v>
       </c>
       <c r="B10" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C10" t="s">
         <v>62</v>
@@ -9654,12 +9656,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>313</v>
       </c>
       <c r="B11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C11" t="s">
         <v>248</v>
@@ -9674,12 +9676,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>314</v>
       </c>
       <c r="B12" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C12" t="s">
         <v>159</v>
@@ -9694,12 +9696,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>315</v>
       </c>
       <c r="B13" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C13" t="s">
         <v>62</v>
@@ -9714,12 +9716,12 @@
         <v>307</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>316</v>
       </c>
       <c r="B14" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C14" t="s">
         <v>247</v>
@@ -9734,12 +9736,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>317</v>
       </c>
       <c r="B15" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C15" t="s">
         <v>167</v>
@@ -9754,12 +9756,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>318</v>
       </c>
       <c r="B16" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C16" t="s">
         <v>170</v>
@@ -9774,12 +9776,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>319</v>
       </c>
       <c r="B17" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C17" t="s">
         <v>296</v>
@@ -9794,12 +9796,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>320</v>
       </c>
       <c r="B18" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C18" t="s">
         <v>94</v>
@@ -9814,12 +9816,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>321</v>
       </c>
       <c r="B19" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C19" t="s">
         <v>182</v>
@@ -9834,12 +9836,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>322</v>
       </c>
       <c r="B20" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C20" t="s">
         <v>302</v>
@@ -9854,12 +9856,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>323</v>
       </c>
       <c r="B21" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C21" t="s">
         <v>188</v>
@@ -9874,12 +9876,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>324</v>
       </c>
       <c r="B22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C22" t="s">
         <v>199</v>
@@ -9894,12 +9896,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>325</v>
       </c>
       <c r="B23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C23" t="s">
         <v>238</v>
@@ -9914,12 +9916,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>326</v>
       </c>
       <c r="B24" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C24" t="s">
         <v>231</v>
@@ -9934,12 +9936,12 @@
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>327</v>
       </c>
       <c r="B25" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C25" t="s">
         <v>214</v>
@@ -9954,12 +9956,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>328</v>
       </c>
       <c r="B26" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C26" t="s">
         <v>62</v>
@@ -9988,9 +9990,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>260</v>
       </c>
@@ -10010,12 +10012,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>329</v>
       </c>
       <c r="B2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C2" t="s">
         <v>320</v>
@@ -10030,12 +10032,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>330</v>
       </c>
       <c r="B3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C3" t="s">
         <v>329</v>
@@ -10050,12 +10052,12 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>331</v>
       </c>
       <c r="B4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C4" t="s">
         <v>356</v>
@@ -10070,12 +10072,12 @@
         <v>357</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>332</v>
       </c>
       <c r="B5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C5" t="s">
         <v>326</v>
@@ -10090,12 +10092,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>333</v>
       </c>
       <c r="B6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
@@ -10110,12 +10112,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>334</v>
       </c>
       <c r="B7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C7" t="s">
         <v>327</v>
@@ -10130,12 +10132,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>335</v>
       </c>
       <c r="B8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C8" t="s">
         <v>328</v>
@@ -10150,12 +10152,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>336</v>
       </c>
       <c r="B9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C9" t="s">
         <v>349</v>
@@ -10170,12 +10172,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>337</v>
       </c>
       <c r="B10" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C10" t="s">
         <v>355</v>
@@ -10190,12 +10192,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>338</v>
       </c>
       <c r="B11" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C11" t="s">
         <v>319</v>
@@ -10210,12 +10212,12 @@
         <v>318</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>339</v>
       </c>
       <c r="B12" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C12" t="s">
         <v>351</v>
@@ -10230,12 +10232,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>340</v>
       </c>
       <c r="B13" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C13" t="s">
         <v>300</v>
@@ -10250,12 +10252,12 @@
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>341</v>
       </c>
       <c r="B14" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C14" t="s">
         <v>298</v>
@@ -10270,12 +10272,12 @@
         <v>299</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>342</v>
       </c>
       <c r="B15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C15" t="s">
         <v>331</v>
@@ -10290,12 +10292,12 @@
         <v>332</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>343</v>
       </c>
       <c r="B16" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C16" t="s">
         <v>335</v>
@@ -10310,12 +10312,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>344</v>
       </c>
       <c r="B17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C17" t="s">
         <v>123</v>
@@ -10330,12 +10332,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>345</v>
       </c>
       <c r="B18" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C18" t="s">
         <v>302</v>
@@ -10350,12 +10352,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>346</v>
       </c>
       <c r="B19" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C19" t="s">
         <v>293</v>
@@ -10370,12 +10372,12 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>347</v>
       </c>
       <c r="B20" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C20" t="s">
         <v>346</v>
@@ -10390,12 +10392,12 @@
         <v>347</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>348</v>
       </c>
       <c r="B21" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C21" t="s">
         <v>324</v>
@@ -10410,12 +10412,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>349</v>
       </c>
       <c r="B22" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C22" t="s">
         <v>350</v>
@@ -10430,12 +10432,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>350</v>
       </c>
       <c r="B23" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C23" t="s">
         <v>348</v>
@@ -10450,12 +10452,12 @@
         <v>325</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>351</v>
       </c>
       <c r="B24" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C24" t="s">
         <v>348</v>
@@ -10470,12 +10472,12 @@
         <v>325</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>352</v>
       </c>
       <c r="B25" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C25" t="s">
         <v>343</v>
@@ -10490,12 +10492,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>353</v>
       </c>
       <c r="B26" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C26" t="s">
         <v>345</v>
@@ -10510,12 +10512,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>354</v>
       </c>
       <c r="B27" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C27" t="s">
         <v>336</v>
@@ -10530,12 +10532,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>355</v>
       </c>
       <c r="B28" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C28" t="s">
         <v>305</v>
@@ -10550,12 +10552,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>356</v>
       </c>
       <c r="B29" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C29" t="s">
         <v>344</v>
@@ -10570,12 +10572,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>357</v>
       </c>
       <c r="B30" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C30" t="s">
         <v>342</v>
@@ -10590,12 +10592,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>358</v>
       </c>
       <c r="B31" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C31" t="s">
         <v>340</v>
@@ -10610,12 +10612,12 @@
         <v>341</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>359</v>
       </c>
       <c r="B32" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C32" t="s">
         <v>76</v>
@@ -10630,12 +10632,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>360</v>
       </c>
       <c r="B33" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C33" t="s">
         <v>20</v>
@@ -10650,12 +10652,12 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>361</v>
       </c>
       <c r="B34" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C34" t="s">
         <v>337</v>
@@ -10670,12 +10672,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>362</v>
       </c>
       <c r="B35" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C35" t="s">
         <v>319</v>
@@ -10690,12 +10692,12 @@
         <v>318</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>363</v>
       </c>
       <c r="B36" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C36" t="s">
         <v>330</v>
@@ -10710,12 +10712,12 @@
         <v>253</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>364</v>
       </c>
       <c r="B37" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C37" t="s">
         <v>354</v>
@@ -10730,12 +10732,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>365</v>
       </c>
       <c r="B38" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C38" t="s">
         <v>301</v>
@@ -10750,12 +10752,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>366</v>
       </c>
       <c r="B39" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C39" t="s">
         <v>333</v>
@@ -10770,12 +10772,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>367</v>
       </c>
       <c r="B40" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C40" t="s">
         <v>315</v>
@@ -10790,12 +10792,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>368</v>
       </c>
       <c r="B41" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C41" t="s">
         <v>306</v>
@@ -10810,12 +10812,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>369</v>
       </c>
       <c r="B42" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C42" t="s">
         <v>339</v>
@@ -10830,12 +10832,12 @@
         <v>325</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>370</v>
       </c>
       <c r="B43" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C43" t="s">
         <v>313</v>
@@ -10850,12 +10852,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>371</v>
       </c>
       <c r="B44" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C44" t="s">
         <v>62</v>
@@ -10870,12 +10872,12 @@
         <v>307</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>372</v>
       </c>
       <c r="B45" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C45" t="s">
         <v>296</v>
@@ -10890,12 +10892,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>373</v>
       </c>
       <c r="B46" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C46" t="s">
         <v>321</v>
@@ -10910,12 +10912,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>374</v>
       </c>
       <c r="B47" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C47" t="s">
         <v>20</v>
@@ -10930,12 +10932,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>375</v>
       </c>
       <c r="B48" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C48" t="s">
         <v>309</v>
@@ -10950,12 +10952,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>376</v>
       </c>
       <c r="B49" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C49" t="s">
         <v>302</v>
@@ -10970,12 +10972,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>377</v>
       </c>
       <c r="B50" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C50" t="s">
         <v>198</v>
@@ -10990,12 +10992,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>378</v>
       </c>
       <c r="B51" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C51" t="s">
         <v>199</v>
@@ -11010,12 +11012,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>379</v>
       </c>
       <c r="B52" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C52" t="s">
         <v>203</v>
@@ -11030,12 +11032,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>380</v>
       </c>
       <c r="B53" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C53" t="s">
         <v>323</v>
@@ -11050,12 +11052,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>381</v>
       </c>
       <c r="B54" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C54" t="s">
         <v>297</v>
@@ -11070,12 +11072,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>382</v>
       </c>
       <c r="B55" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C55" t="s">
         <v>352</v>
@@ -11090,12 +11092,12 @@
         <v>353</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>383</v>
       </c>
       <c r="B56" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C56" t="s">
         <v>338</v>
@@ -11110,12 +11112,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>384</v>
       </c>
       <c r="B57" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C57" t="s">
         <v>250</v>
@@ -11130,12 +11132,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>385</v>
       </c>
       <c r="B58" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C58" t="s">
         <v>352</v>
@@ -11150,12 +11152,12 @@
         <v>353</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>386</v>
       </c>
       <c r="B59" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C59" t="s">
         <v>146</v>
